--- a/FEM_2D/images/data.xlsx
+++ b/FEM_2D/images/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xusenqin/Desktop/Advanced-Finite-Element-Methods/FEM_2D/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DE261F-80B7-AA49-BF7F-AA9BB97E50C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D27DA-85AE-BC4F-9DDF-C9F2740D4798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42380" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{3AB4AD4A-166D-114F-A7EE-C4FC4EFD7796}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>a/b ratio</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>sigma_y_FEM</t>
+  </si>
+  <si>
+    <t>sigma_y_exa</t>
   </si>
 </sst>
 </file>
@@ -438,16 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF4733D-CBB9-2E4A-ACD8-6858D08050D5}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -715,7 +719,7 @@
         <v>-4.8399999999999997E-3</v>
       </c>
       <c r="I21" s="1">
-        <v>-6.96E-3</v>
+        <v>-1.205E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -739,14 +743,14 @@
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="G22">
-        <v>1.091E-2</v>
+        <v>1.8890000000000001E-2</v>
       </c>
       <c r="H22">
         <f t="shared" si="4"/>
         <v>-5.3600000000000002E-3</v>
       </c>
       <c r="I22">
-        <v>-3.79E-3</v>
+        <v>-6.5799999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -760,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -771,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="C27" s="1">
         <v>54.6</v>
-      </c>
-      <c r="C27" s="1">
-        <v>23.3</v>
       </c>
       <c r="D27" s="1">
         <v>14.1</v>
@@ -790,10 +794,17 @@
         <v>0.5</v>
       </c>
       <c r="B28" s="1">
-        <v>50.1</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="E28" s="3"/>
+        <v>30.4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>13.4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-1.3</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -802,13 +813,41 @@
         <v>0.05</v>
       </c>
       <c r="B29" s="1">
-        <v>2.7E-4</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C29" s="1">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>